--- a/loaded_influencer_data/nghtlc_0308/nghtlc_0308_video.xlsx
+++ b/loaded_influencer_data/nghtlc_0308/nghtlc_0308_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7255649552311536901</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138200</v>
+        <v>138300</v>
       </c>
       <c r="C2" t="n">
         <v>304</v>
@@ -528,23 +528,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>이 UEHer는 강하고 강하고 강합니다.#sinhvienueh #ueh</t>
+          <t>Hội UEHer này mạnh, mạnh ai nấy báo #sinhvienueh #ueh</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.223589001447178</v>
+        <v>0.2234273318872018</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2199710564399421</v>
+        <v>0.2198120028922632</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00361794500723589</v>
+        <v>0.00361532899493854</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0361794500723589</v>
+        <v>0.03615328994938539</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,369 +558,371 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7488770611922324791</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1092</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cảm giác thư giãn nhờ tắm giữa thiên hà cùng #LUX #LuxMoodCollection #LuxGalaxy #HợpTácCùngUnilever</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2.896825396825397</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.007936507936507936</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7480420785467755784</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>13700</v>
       </c>
-      <c r="C3" t="n">
-        <v>277</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>무엇을 먹을까요?#buonmathuot #daklak #ancungtiktok</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2.021897810218978</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.021897810218978</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="C4" t="n">
+        <v>278</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Buôn Ma Thuột ăn gì #buonmathuot #daklak #ancungtiktok</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.029197080291971</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.029197080291971</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7476666570610085138</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3898</v>
-      </c>
-      <c r="C4" t="n">
-        <v>321</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B5" t="n">
+        <v>3940</v>
+      </c>
+      <c r="C5" t="n">
+        <v>295</v>
+      </c>
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Cửa hàng thứ 3 của Nitori tại Việt Nam chính thức khai trương! 🎉 Ai đang có kế hoạch decor lại nhà cửa thì tranh thủ ghé ngay nha! #NitoriVietnam #NitoriVN #Nitori #NitoriForAll</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8.286300667008723</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.234992303745511</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0513083632632119</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.02565418163160595</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cửa hàng thứ 3 của Nitori tại Việt Nam chính thức khai trương! 🎉 Ai đang có kế hoạch decor lại nhà cửa thì tranh thủ ghé ngay nha!</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7.538071065989847</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.487309644670051</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05076142131979695</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.02538071065989848</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/photo/7462732402633280775</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>12000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>462</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>베트남에 있는 니토리의 세 번째 가게가 공식적으로 문을 열었습니다! 🎉 집을 다시 꾸밀 계획이라면 누구나 그것을 이용해야 합니다!</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bộ ảnh Tết tại #vietnamquoctu #aodai</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3.858333333333333</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>3.85</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.008333333333333333</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>0.025</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7448887984247573778</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>27200</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B7" t="n">
+        <v>27300</v>
+      </c>
+      <c r="C7" t="n">
         <v>220</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>24</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EDM에 가면 레볼루션을 놓칠 해가 없습니다.#StingRavolution #BatNangLuongSongButPha #Ravo2024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8088235294117648</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8088235294117648</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Đi quẩy EDM thì không năm nào bỏ qua Ravolution #StingRavolution #BatNangLuongSongButPha</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.805860805860806</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.805860805860806</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.08791208791208791</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7446790387177393426</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>12400</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>360</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>60</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>콤보 스킨케어, 편리하고 효과적 🥰 #CBL #suaruamatCBL #KemduongtrangdaCBL #sangda #trangtunhien</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Combo chăm da, tiện và hiệu quả lắm nè 🥰
+#CBL #suaruamatCBL #KemduongtrangdaCBL #sangda</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2.92741935483871</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>2.903225806451613</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.02419354838709677</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>0.4838709677419355</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7438547156941688071</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>11600</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
+        <v>360</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Combo chăm da, tiện và hiệu quả lắm nè 🥰
+#CBL #suaruamatCBL #KemduongtrangdaCBL #sangda</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3.129310344827586</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.103448275862069</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02586206896551724</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7429324215549037842</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>522200</v>
+      </c>
+      <c r="C10" t="n">
         <v>111</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>동생에게 x로 체크인하도록 요청하십시오.@MIXUE VIETNAM @coocaavietnam #mixue #coocaa</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9568965517241379</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2024-11-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7429324215549037842</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>522200</v>
-      </c>
-      <c r="C9" t="n">
-        <v>318</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>당신이 선택한 체육관은. .. #CITIGYM #CITIGYMTikTokChallenge2024 #CITIGYM1024</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.06089620834929146</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.06089620834929146</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.006319417847567981</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2024-10-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7423347069357788424</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>268</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -930,397 +932,397 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>Rủ anh trai, chị đẹp đi check in cùng @MIXUE VIETNAM x @coocaavietnam #mixue #coocaa</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02144772117962467</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0212562236690923</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0001914975105323631</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0003829950210647262</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7423347069357788424</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>268</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Top 1 sản phẩm skincare của tui #dalbavietnam#dalbavn#dalbacangbong#dalbamist#dalbakcn</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2.3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>2.233333333333333</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2024-10-8</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7414042360109108487</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>11400</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>269</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>52</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>같은 15.9를 놓칠 수 없다#dieple</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>2.815789473684211</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>2.359649122807018</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.456140350877193</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.008771929824561403</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2024-9-13</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7413756435252727047</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>11100</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>218</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>손틴트 MLBB 롱 드리프트 #silkygirlvn #makeup_tapsu #mlbbliptint #sontint #lauphaicuc #fyp #CapCut</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2.009009009009009</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1.963963963963964</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.04504504504504504</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2024-9-12</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7412886040752557317</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>20900</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>362</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lux-Huong Hoa Thien Dieu 향수 목욕의 독특한 향기를 경험하십시오.#Lux #trieugiacquanbunghuong</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1.746411483253589</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1.732057416267943</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.01435406698564593</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2024-9-10</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7400378390097825032</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>11900</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>487</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Linh의 립스틱 컬렉션에는 항상 집에서 베스트셀러 색상이 있습니다. @Black Rouge Vietnam #blackrouge #son #fyp</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>4.126050420168068</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>4.092436974789917</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.03361344537815126</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2024-8-7</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7399656443760086290</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>27200</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>431</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>한 달 동안 메타 쇼를 사용했지만 여전히 좋아합니다. 🥰 #Metashow #Thisomall #congngheanhsang #anhsang</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1.591911764705882</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>1.584558823529412</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.007352941176470587</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2024-8-5</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7399175639083011335</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>21600</v>
-      </c>
-      <c r="C16" t="n">
-        <v>309</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>La Bella Lam house의 인상적인 향수#zolux #nuochoalam #perfume #fyp #labella #LaVieLancome</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1.430555555555556</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.430555555555556</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2024-8-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7397663989766884626</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>21600</v>
       </c>
       <c r="C17" t="n">
+        <v>309</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>La Bella Lam house의 인상적인 향수#zolux #nuochoalam #perfume #fyp #labella #LaVieLancome</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1.430555555555556</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.430555555555556</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2024-8-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7397663989766884626</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>21600</v>
+      </c>
+      <c r="C18" t="n">
         <v>222</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>메타쇼 베트남 너무 많은 아름다움🥰 이 전시회는 반 고흐의 삶을 중심으로 돌아가는 빛, 소리, 예술의 조합입니다.</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1.032407407407407</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.027777777777778</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.004629629629629629</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.004629629629629629</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2024-7-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7396315541633322247</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>21800</v>
-      </c>
-      <c r="C18" t="n">
-        <v>517</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1334,143 +1336,143 @@
         </is>
       </c>
       <c r="H18" t="n">
+        <v>1.032407407407407</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.027777777777778</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.004629629629629629</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.004629629629629629</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2024-7-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7396315541633322247</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21800</v>
+      </c>
+      <c r="C19" t="n">
+        <v>517</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>메타쇼 베트남 너무 많은 아름다움🥰 이 전시회는 반 고흐의 삶을 중심으로 돌아가는 빛, 소리, 예술의 조합입니다.</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2.403669724770642</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>2.371559633027523</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.03211009174311927</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>0.004587155963302753</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2024-7-27</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7392571833356225810</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>10900</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>255</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>어디로 나가야 할지 모르는 SG에서는 이곳을 놓칠 수 없습니다.#Metashow #Thisomall #congngheanhsang #anhsang</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2.385321100917431</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>2.339449541284404</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.03669724770642202</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2024-7-17</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7391082063253769480</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>11200</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>216</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Làm việc dưới nắng cần bảo vệ da kĩ hơn với #suachongnang #avorio #suachongnang #avorio</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1.946428571428572</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.928571428571428</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.008928571428571428</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2024-7-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7385439573767146759</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>343</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1480,91 +1482,91 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>Làm việc dưới nắng cần bảo vệ da kĩ hơn với #suachongnang #avorio #suachongnang #avorio</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1.946428571428572</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.928571428571428</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.008928571428571428</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2024-7-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7385439573767146759</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>343</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>아이라이너는 훌륭합니다.@shatail_vn #eyeliner #kemat #makeup</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>2.908333333333333</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>2.858333333333333</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.05</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.008333333333333333</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2024-6-28</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7378813994796076295</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>11300</v>
-      </c>
-      <c r="C22" t="n">
-        <v>107</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Bổ sung Collegen và #Biotin #sleepingmask #collagenpeptide #eatscore #evercollagen #Biotin #sleepingmask</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9557522123893806</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9469026548672566</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.008849557522123894</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2024-6-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7375392778664054023</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>21500</v>
       </c>
       <c r="C23" t="n">
         <v>107</v>
@@ -1580,20 +1582,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>콜라겐 보충제 및#Biotin #sleepingmask #collagenpeptide #eatscore #evercollagen</t>
+          <t>Bổ sung Collegen và #Biotin #sleepingmask #collagenpeptide #eatscore #evercollagen #Biotin #sleepingmask</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.5023255813953489</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4976744186046512</v>
+        <v>0.9469026548672566</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.004651162790697674</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1608,16 +1610,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7374625732921756936</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7375392778664054023</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14200</v>
+        <v>21500</v>
       </c>
       <c r="C24" t="n">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1626,48 +1628,48 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>레티놀은 피부를 더욱 아름답게 만듭니다#hderma #retinol #beauty</t>
+          <t>콜라겐 보충제 및#Biotin #sleepingmask #collagenpeptide #eatscore #evercollagen</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.577464788732394</v>
+        <v>0.5023255813953489</v>
       </c>
       <c r="I24" t="n">
-        <v>1.570422535211268</v>
+        <v>0.4976744186046512</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007042253521126761</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1338028169014084</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-6-1</t>
+          <t>2024-6-10</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7374067490936179976</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7374625732921756936</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13100</v>
+        <v>14200</v>
       </c>
       <c r="C25" t="n">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1676,48 +1678,48 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>#lehoisongnuocthanhphohochiminh #hochiminh #saigon</t>
+          <t>레티놀은 피부를 더욱 아름답게 만듭니다#hderma #retinol #beauty</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.9083969465648856</v>
+        <v>1.577464788732394</v>
       </c>
       <c r="I25" t="n">
-        <v>0.900763358778626</v>
+        <v>1.570422535211268</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.007633587786259543</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2366412213740458</v>
+        <v>0.1338028169014084</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-5-30</t>
+          <t>2024-6-1</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/photo/7368475630259719442</t>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7374067490936179976</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14600</v>
+        <v>13100</v>
       </c>
       <c r="C26" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1726,98 +1728,98 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>#lehoisongnuocthanhphohochiminh #hochiminh #saigon</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9083969465648856</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.900763358778626</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.007633587786259543</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2366412213740458</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-5-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/photo/7368475630259719442</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>14600</v>
+      </c>
+      <c r="C27" t="n">
+        <v>122</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>37</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>밤에 나를 그리워하거나 늦게까지 자지 마세요#lanbena #matnamat #review #eyemask</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>0.8424657534246576</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>0.8356164383561644</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.00684931506849315</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.2534246575342466</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-5-29</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7364063827303976200</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>11000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>195</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>38</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>섞기 쉬운 기본 가방#tuixach #mossdoom #hssv</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.772727272727273</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.02727272727272727</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.3454545454545455</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2024-5-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7362808661170818311</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2885</v>
-      </c>
-      <c r="C28" t="n">
-        <v>243</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
@@ -1826,928 +1828,978 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>38</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>섞기 쉬운 기본 가방#tuixach #mossdoom #hssv</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.772727272727273</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02727272727272727</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3454545454545455</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024-5-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7362808661170818311</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2885</v>
+      </c>
+      <c r="C29" t="n">
+        <v>243</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>63</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>D'Alba로 한 단계 딥 클리닝#dalba #dalbavn #dalbacleanser</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>8.526863084922011</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>8.422876949740035</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.1039861351819757</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>2.183708838821491</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-5-2</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7351385077244235015</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>7566</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>201</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>11</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>57</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>4월 30일 위대한 날 기념 - 남부의 해방#30thang4 #dinhdoclap #trending</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>2.802008987575998</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>2.656621728786677</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1453872587893207</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.753370340999207</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-4-28</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7348067375910112520</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>11700</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>221</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>47</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>바티스트 드라이 샴푸 덕분에 빠른 향의 깨끗한 머리#daugoikho #batiste #batistevietnam #dầu_gội_khô_Batiste</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>1.914529914529915</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>1.888888888888889</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.02564102564102564</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>0.4017094017094017</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-3-28</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7341242164388678930</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>11300</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>345</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>51</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>그날 웃었던 소녀#capcut #xuhuong #votri</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>3.061946902654867</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>3.053097345132743</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.008849557522123894</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>0.4513274336283186</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-3-19</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7332836502759574791</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>11900</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>419</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>10</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>49</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>카페, 가벼운 의상이 있는 거리, 심플#aventus #váybody #cafe</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>3.605042016806723</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>3.521008403361345</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.08403361344537816</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0.411764705882353</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-3-1</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7327665788536524040</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>11600</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>453</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>58</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>🤍🥰 주는 것은 영원합니다.#CapCut #thanhhoa</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>3.922413793103448</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>3.905172413793104</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.01724137931034483</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.5</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-2-7</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7324334423925689607</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>13800</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>355</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>42</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
         <v>2.572463768115942</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>2.572463768115942</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.3043478260869565</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-1-24</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7322850914891566343</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>12400</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>178</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>1</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>31</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>나는 23년 동안 물 속에 있었다.#CapCut #Tet</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>1.443548387096774</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>1.435483870967742</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.008064516129032258</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.25</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-1-15</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7315988358755388680</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>12300</v>
-      </c>
-      <c r="C36" t="n">
-        <v>412</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>19</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2024년 11일 동안만 사용되었으므로 😆.</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3.349593495934959</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.349593495934959</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.1544715447154472</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2024-1-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nghtlc_0308/video/7308742433745980690</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>12300</v>
       </c>
       <c r="C37" t="n">
+        <v>412</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024년 11일 동안만 사용되었으므로 😆.</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3.349593495934959</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.349593495934959</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.1544715447154472</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nghtlc_0308/video/7308742433745980690</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C38" t="n">
         <v>261</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>외출하는 것은 너무 스트레스가 많고 외출하는 것은 재미가 없습니다.#vietfootball #vsc #hpl</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>2.16260162601626</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>2.121951219512195</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.04065040650406504</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>0.01626016260162601</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2023-12-24</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7306845017639898386</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>5974</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>152</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Rav 뮤직 페스티벌 2023#pepsi #ravolution #ravolutionmusicfestival</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>2.544358888516907</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>2.544358888516907</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2023-12-4</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7289329982470409480</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>22600</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>231</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>직업의 열정 때문에 자주 출근하지만 극단적인 일, 끼니를 거르는 일, 불면증, 더 나쁜 일, 특히 😅.#bongda #event</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>1.039823008849557</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>1.02212389380531</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.01769911504424779</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7266060360698842370</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>62300</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>806</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Ghé rạp ủng hộ Đất rừng phương Nam nào #datphuongnam #datrungphuongnam #CapCut #datphuongnam</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>1.298555377207063</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>1.293739967897271</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.004815409309791332</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>0.001605136436597111</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7257770259061460230</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>58000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>175</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>남부 숲을 지원하기 위해 극장으로 이동#datphuongnam #datrungphuongnam #CapCut</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>0.3103448275862069</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>0.3017241379310345</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.008620689655172414</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.003448275862068965</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2023-8-11</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7254953627796737285</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>43900</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>416</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>3</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>뭐, 당신은 나를 사랑합니다. 당신은 서로를 별로 사랑하지 않습니다.@GenZ làm Pháp chế #CapCut #bestfriend</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>0.9544419134396356</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>0.9476082004555809</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.00683371298405467</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>0.01138952164009112</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2023-7-20</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7251609674615753990</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>26000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>264</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>1</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>사장님이 캠에게 사탕수수 주스를 마셔도 괜찮다고 하셨고, 여러분 각자는 그날 쇼를 촬영할 것이라는 것을 알게 될 것입니다.</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>1.019230769230769</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>1.015384615384615</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.003846153846153846</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2023-7-13</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7249336972332829958</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>2836</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>550</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>1</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>그런 다음 Hocmon에서 길을 잃습니다.#CapCut #puncoffee #hocmom</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>19.46403385049365</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>19.3935119887165</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.07052186177715092</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>0.03526093088857546</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2023-7-4</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7248854554173869317</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>44300</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>174</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>어느 날 캠에서 어디로 갈지, 앱 그랩에서 뚝뚝이를 몇 번 더 찍은 후, 우리는 또한 riel에게 돈을 지불한 경험이 있습니다.</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>0.3927765237020316</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>0.3927765237020316</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2023-6-27</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nghtlc_0308/video/7246796875368516869</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>4183</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>536</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>8</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>다음 경기부터 나는 관중이 될 것이다.#CapCut #bóngđá #SVTH</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>13.00502032034425</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>12.81377002151566</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1912502988285919</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>0.04781257470714798</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2023-6-26</t>
         </is>
